--- a/picture.xlsx
+++ b/picture.xlsx
@@ -619,13 +619,15 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
